--- a/assets/files/Services.xlsx
+++ b/assets/files/Services.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Domain</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Score for all Level</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -324,11 +327,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -355,6 +395,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,6 +408,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,25 +720,27 @@
     <col min="11" max="11" width="37" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -729,8 +783,11 @@
       <c r="N2" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="11">
         <v>4</v>
       </c>
@@ -762,8 +819,15 @@
         <f>SUM(E4:M4)</f>
         <v>35</v>
       </c>
+      <c r="O4" s="2">
+        <v>102</v>
+      </c>
+      <c r="P4" s="2">
+        <f>102*9</f>
+        <v>918</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -791,17 +855,25 @@
         <v>1</v>
       </c>
       <c r="L5" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="13">
         <v>2</v>
       </c>
       <c r="N5" s="13">
         <f>SUM(E5:M5)</f>
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="O5" s="5">
+        <f>N5/102*100</f>
+        <v>18.627450980392158</v>
+      </c>
+      <c r="P5" s="21">
+        <f>40/918*100</f>
+        <v>4.3572984749455337</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -821,8 +893,13 @@
         <f t="shared" ref="N6:N13" si="0">SUM(E6:M6)</f>
         <v>0</v>
       </c>
+      <c r="O6" s="5">
+        <f t="shared" ref="O6:O13" si="1">N6/102*100</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -835,7 +912,9 @@
       <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
       <c r="G7" s="14">
         <v>3</v>
       </c>
@@ -844,12 +923,20 @@
       <c r="J7" s="14">
         <v>1</v>
       </c>
+      <c r="L7" s="16">
+        <v>10</v>
+      </c>
       <c r="N7" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>20.588235294117645</v>
+      </c>
+      <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -869,8 +956,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -890,8 +982,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -911,8 +1008,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -932,8 +1034,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -953,8 +1060,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -974,11 +1086,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="23"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
